--- a/examcom/schema/mysql/mhr_shozoku.xlsx
+++ b/examcom/schema/mysql/mhr_shozoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FDC059-D74F-4F16-9A2C-FB00CA0A6470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA164DB-2AD7-40E9-A229-29BC057CC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>

--- a/examcom/schema/mysql/mhr_shozoku.xlsx
+++ b/examcom/schema/mysql/mhr_shozoku.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA164DB-2AD7-40E9-A229-29BC057CC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6EA164DB-2AD7-40E9-A229-29BC057CC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945601AE-C72F-45D8-AAE2-3BB82386C37D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
   </bookViews>
   <sheets>
     <sheet name="emarf.mhr_shozoku" sheetId="2" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>0</t>
   </si>
@@ -215,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,33 +536,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF447691-ED56-4813-A356-513291BBCCCD}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="A3" sqref="A3:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -592,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -621,6 +623,230 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45644</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45644.84447916667</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/examcom/schema/mysql/mhr_shozoku.xlsx
+++ b/examcom/schema/mysql/mhr_shozoku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6EA164DB-2AD7-40E9-A229-29BC057CC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945601AE-C72F-45D8-AAE2-3BB82386C37D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A703756-E41A-4130-BFD6-6C9AE754986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
   </bookViews>
   <sheets>
     <sheet name="emarf.mhr_shozoku" sheetId="2" r:id="rId1"/>
@@ -213,10 +213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,15 +606,11 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="3">
         <v>0</v>
       </c>
@@ -642,15 +634,11 @@
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="3">
         <v>0</v>
       </c>
@@ -674,15 +662,11 @@
       <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="3">
         <v>0</v>
       </c>
@@ -706,15 +690,11 @@
       <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="3">
         <v>0</v>
       </c>
@@ -738,15 +718,11 @@
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -770,15 +746,11 @@
       <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -802,15 +774,11 @@
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -834,15 +802,11 @@
       <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
-        <v>45644.84447916667</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>

--- a/examcom/schema/mysql/mhr_shozoku.xlsx
+++ b/examcom/schema/mysql/mhr_shozoku.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A703756-E41A-4130-BFD6-6C9AE754986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3B7926-33F0-4283-A89A-B4992ECB8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
   </bookViews>
@@ -538,27 +538,27 @@
       <selection activeCell="A3" sqref="A3:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>0</v>
       </c>

--- a/examcom/schema/mysql/mhr_shozoku.xlsx
+++ b/examcom/schema/mysql/mhr_shozoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3B7926-33F0-4283-A89A-B4992ECB8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C17A28-A919-4997-B8A9-4E9EB3DA7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E2B39F1-3B1B-49DA-AC69-91A7B3C0B41F}"/>
   </bookViews>
